--- a/test.mp4.xlsx
+++ b/test.mp4.xlsx
@@ -429,27 +429,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>motorcycle</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>car</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>bus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>motorcycle</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>truck</t>
         </is>
       </c>
     </row>
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>601</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>1025</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">

--- a/test.mp4.xlsx
+++ b/test.mp4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,25 +429,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>sitp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>scooter</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>motorbike</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>car</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-axis</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>bus</t>
         </is>
@@ -460,19 +470,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="E3" t="n">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="F3" t="n">
         <v>28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -482,19 +498,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="E4" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -504,41 +526,53 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>651</v>
       </c>
       <c r="E5" t="n">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>94</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E6" t="n">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -565,6 +599,14 @@
       </c>
       <c r="F7">
         <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>SUM(G3:G6)</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>SUM(H3:H6)</f>
         <v/>
       </c>
     </row>
